--- a/Templates/BFH-Sheets/BOM-Template.xlsx
+++ b/Templates/BFH-Sheets/BOM-Template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefan\Documents\Audio-Streamer\hardware\Templates\BFH-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5FB0EEF6-D0E1-4C8F-BEF3-EEC1DC4F4359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3FD06D-067A-4C5E-8CD3-88D82FE339F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$8:$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -110,12 +113,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +150,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -155,7 +158,14 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -163,8 +173,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,55 +344,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -406,13 +415,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>185488</xdr:colOff>
+      <xdr:colOff>152830</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>13537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>643690</xdr:colOff>
+      <xdr:colOff>611032</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>168725</xdr:rowOff>
     </xdr:to>
@@ -446,8 +455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6622383" y="329366"/>
-          <a:ext cx="458202" cy="716662"/>
+          <a:off x="6776787" y="399980"/>
+          <a:ext cx="458202" cy="715802"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -721,45 +730,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="9" max="10" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
@@ -775,13 +784,13 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
@@ -792,13 +801,13 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
@@ -806,88 +815,97 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>A9*I9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="16">
+        <f t="shared" ref="J10:J11" si="0">A10*I10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="27">
         <f>SUM(A9:A11)</f>
         <v>0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="6">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29">
         <f>SUM(J9:J11)</f>
         <v>0</v>
       </c>
@@ -943,7 +961,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -980,7 +998,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;9&amp;Z&amp;F&amp;R&amp;9&amp;P / &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;8&amp;Z&amp;F&amp;R&amp;8&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
